--- a/PROJECTS MACRO/MACRO_PROCESS - Report Aging PerGL PerBranch/RPA Preference/.Source/JDE/1204_INUM.xlsx
+++ b/PROJECTS MACRO/MACRO_PROCESS - Report Aging PerGL PerBranch/RPA Preference/.Source/JDE/1204_INUM.xlsx
@@ -1,26 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25911"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wwinarsih\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\10.8.0.35\rpa$\RPA Excel Template\Accounting Finance\MACRO_PROCESS - Report Aging PerGL PerBranch\RPA Preference\.Source\JDE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{00A64C93-B4EE-4FFB-81C8-9801780B5FA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{93C5E993-A8E4-4865-8E85-2C3D64A51C86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" xr2:uid="{113E8D7A-B37C-41AA-851F-2CCF15FD2C5F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
   </bookViews>
   <sheets>
-    <sheet name="R5641114_GG0001_1905033_PDF" sheetId="1" r:id="rId1"/>
+    <sheet name="R5641114_GG0001_1956638_PDF (1)" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="64">
   <si>
     <t>þÿ</t>
   </si>
@@ -167,6 +167,9 @@
   </si>
   <si>
     <t>TINTA NUMBERING</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> WARNA ORANGE</t>
   </si>
   <si>
     <t>STOKER BUNDELING</t>
@@ -214,19 +217,21 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Bahnschrift"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Bahnschrift"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="18"/>
@@ -239,99 +244,114 @@
       <b/>
       <sz val="15"/>
       <color theme="3"/>
-      <name val="Bahnschrift"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
-      <name val="Bahnschrift"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
-      <name val="Bahnschrift"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="Bahnschrift"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Bahnschrift"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C5700"/>
-      <name val="Bahnschrift"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="Bahnschrift"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="Bahnschrift"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Bahnschrift"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Bahnschrift"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Bahnschrift"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Bahnschrift"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="Bahnschrift"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Bahnschrift"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Bahnschrift"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="33">
@@ -739,7 +759,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2013 - 2022">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1027,44 +1047,42 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE8F8BDB-B5C9-4DCA-94F7-5BE376C7D227}">
-  <dimension ref="A1:T41"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:T42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="S1" s="1">
-        <v>45666</v>
+        <v>45721</v>
       </c>
       <c r="T1" s="2">
-        <v>0.9048032407407407</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
+        <v>0.61251157407407408</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="I3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="S4" t="s">
         <v>3</v>
       </c>
@@ -1072,12 +1090,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="J5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="I6">
         <v>1204</v>
       </c>
@@ -1085,7 +1103,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -1096,7 +1114,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -1110,7 +1128,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="D9" t="s">
         <v>11</v>
       </c>
@@ -1130,7 +1148,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>17</v>
       </c>
@@ -1144,7 +1162,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>76741</v>
       </c>
@@ -1152,25 +1170,25 @@
         <v>21</v>
       </c>
       <c r="J11" s="1">
-        <v>45553</v>
+        <v>45712</v>
       </c>
       <c r="K11">
-        <v>216</v>
+        <v>306</v>
       </c>
       <c r="M11">
-        <v>71.430000000000007</v>
+        <v>91.33</v>
       </c>
       <c r="P11" t="s">
         <v>22</v>
       </c>
       <c r="R11">
-        <v>105</v>
+        <v>5</v>
       </c>
       <c r="T11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>79248</v>
       </c>
@@ -1181,22 +1199,22 @@
         <v>45649</v>
       </c>
       <c r="K12">
-        <v>864</v>
+        <v>-141</v>
       </c>
       <c r="M12">
-        <v>133.31</v>
+        <v>-22.04</v>
       </c>
       <c r="P12" t="s">
         <v>22</v>
       </c>
       <c r="R12">
-        <v>9</v>
+        <v>68</v>
       </c>
       <c r="T12">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>79273</v>
       </c>
@@ -1213,13 +1231,13 @@
         <v>25</v>
       </c>
       <c r="R13">
-        <v>1252</v>
+        <v>1311</v>
       </c>
       <c r="T13">
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>79280</v>
       </c>
@@ -1230,25 +1248,25 @@
         <v>27</v>
       </c>
       <c r="J14" s="1">
-        <v>45604</v>
+        <v>45712</v>
       </c>
       <c r="K14">
-        <v>3349</v>
+        <v>3546</v>
       </c>
       <c r="M14">
-        <v>1265.95</v>
+        <v>1328.07</v>
       </c>
       <c r="P14" t="s">
         <v>22</v>
       </c>
       <c r="R14">
-        <v>54</v>
+        <v>5</v>
       </c>
       <c r="T14">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>79282</v>
       </c>
@@ -1262,22 +1280,22 @@
         <v>45077</v>
       </c>
       <c r="K15">
-        <v>1753</v>
+        <v>1711</v>
       </c>
       <c r="M15">
-        <v>159.51</v>
+        <v>152.49</v>
       </c>
       <c r="P15" t="s">
         <v>22</v>
       </c>
       <c r="R15">
-        <v>581</v>
+        <v>640</v>
       </c>
       <c r="T15">
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>79293</v>
       </c>
@@ -1288,25 +1306,25 @@
         <v>31</v>
       </c>
       <c r="J16" s="1">
-        <v>45617</v>
+        <v>45681</v>
       </c>
       <c r="K16">
-        <v>7350</v>
+        <v>8025</v>
       </c>
       <c r="M16">
-        <v>1284.75</v>
+        <v>1354.13</v>
       </c>
       <c r="P16" t="s">
         <v>22</v>
       </c>
       <c r="R16">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="T16">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>79296</v>
       </c>
@@ -1320,13 +1338,13 @@
         <v>33</v>
       </c>
       <c r="R17">
-        <v>1149</v>
+        <v>1208</v>
       </c>
       <c r="T17">
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>79300</v>
       </c>
@@ -1343,13 +1361,13 @@
         <v>36</v>
       </c>
       <c r="R18">
-        <v>505</v>
+        <v>564</v>
       </c>
       <c r="T18">
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>79303</v>
       </c>
@@ -1360,25 +1378,25 @@
         <v>38</v>
       </c>
       <c r="J19" s="1">
-        <v>45610</v>
+        <v>45701</v>
       </c>
       <c r="K19">
-        <v>105</v>
+        <v>403</v>
       </c>
       <c r="M19">
-        <v>64.540000000000006</v>
+        <v>233.75</v>
       </c>
       <c r="P19" t="s">
         <v>36</v>
       </c>
       <c r="R19">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="T19">
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>136022</v>
       </c>
@@ -1395,19 +1413,19 @@
         <v>225</v>
       </c>
       <c r="M20">
-        <v>53.71</v>
+        <v>53.7</v>
       </c>
       <c r="P20" t="s">
         <v>22</v>
       </c>
       <c r="R20">
-        <v>456</v>
+        <v>515</v>
       </c>
       <c r="T20">
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>197417</v>
       </c>
@@ -1424,13 +1442,13 @@
         <v>22</v>
       </c>
       <c r="R21">
-        <v>2571</v>
+        <v>2630</v>
       </c>
       <c r="T21">
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>220249</v>
       </c>
@@ -1441,25 +1459,25 @@
         <v>42</v>
       </c>
       <c r="J22" s="1">
-        <v>45636</v>
+        <v>45694</v>
       </c>
       <c r="K22">
-        <v>2736</v>
+        <v>3239</v>
       </c>
       <c r="M22">
-        <v>1449.57</v>
+        <v>1655.77</v>
       </c>
       <c r="P22" t="s">
         <v>36</v>
       </c>
       <c r="R22">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="T22">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>225350</v>
       </c>
@@ -1473,13 +1491,13 @@
         <v>25</v>
       </c>
       <c r="R23">
-        <v>3087</v>
+        <v>3146</v>
       </c>
       <c r="T23">
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>253820</v>
       </c>
@@ -1492,17 +1510,23 @@
       <c r="J24" s="1">
         <v>45097</v>
       </c>
+      <c r="K24">
+        <v>-40</v>
+      </c>
+      <c r="M24">
+        <v>-29.29</v>
+      </c>
       <c r="P24" t="s">
         <v>36</v>
       </c>
       <c r="R24">
-        <v>561</v>
+        <v>620</v>
       </c>
       <c r="T24">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>258278</v>
       </c>
@@ -1516,22 +1540,22 @@
         <v>44053</v>
       </c>
       <c r="K25">
-        <v>2676</v>
+        <v>2675</v>
       </c>
       <c r="M25">
-        <v>629.82000000000005</v>
+        <v>623.92999999999995</v>
       </c>
       <c r="P25" t="s">
         <v>22</v>
       </c>
       <c r="R25">
-        <v>1605</v>
+        <v>1664</v>
       </c>
       <c r="T25">
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>258279</v>
       </c>
@@ -1548,13 +1572,13 @@
         <v>22</v>
       </c>
       <c r="R26">
-        <v>1958</v>
+        <v>2017</v>
       </c>
       <c r="T26">
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>258728</v>
       </c>
@@ -1571,13 +1595,13 @@
         <v>36</v>
       </c>
       <c r="R27">
-        <v>1337</v>
+        <v>1396</v>
       </c>
       <c r="T27">
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>264921</v>
       </c>
@@ -1585,245 +1609,265 @@
         <v>48</v>
       </c>
       <c r="J28" s="1">
-        <v>45618</v>
+        <v>45708</v>
+      </c>
+      <c r="K28">
+        <v>100</v>
+      </c>
+      <c r="M28">
+        <v>141.46</v>
       </c>
       <c r="P28" t="s">
         <v>22</v>
       </c>
       <c r="R28">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="T28">
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A29">
+        <v>268649</v>
+      </c>
+      <c r="C29" t="s">
+        <v>30</v>
+      </c>
+      <c r="F29" t="s">
+        <v>49</v>
+      </c>
+      <c r="P29" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A30">
         <v>274600</v>
       </c>
-      <c r="C29" t="s">
-        <v>49</v>
-      </c>
-      <c r="J29" s="1">
+      <c r="C30" t="s">
+        <v>50</v>
+      </c>
+      <c r="J30" s="1">
         <v>45355</v>
-      </c>
-      <c r="P29" t="s">
-        <v>25</v>
-      </c>
-      <c r="R29">
-        <v>303</v>
-      </c>
-      <c r="T29">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A30">
-        <v>276660</v>
-      </c>
-      <c r="C30" t="s">
-        <v>24</v>
-      </c>
-      <c r="J30" s="1">
-        <v>45125</v>
       </c>
       <c r="P30" t="s">
         <v>25</v>
       </c>
       <c r="R30">
-        <v>533</v>
+        <v>362</v>
       </c>
       <c r="T30">
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>277009</v>
+        <v>276660</v>
       </c>
       <c r="C31" t="s">
-        <v>28</v>
-      </c>
-      <c r="F31" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="J31" s="1">
-        <v>45132</v>
-      </c>
-      <c r="K31">
-        <v>-4220</v>
-      </c>
-      <c r="M31">
-        <v>39.299999999999997</v>
+        <v>45125</v>
       </c>
       <c r="P31" t="s">
-        <v>51</v>
+        <v>25</v>
       </c>
       <c r="R31">
-        <v>526</v>
+        <v>592</v>
       </c>
       <c r="T31">
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A32">
+        <v>277009</v>
+      </c>
+      <c r="C32" t="s">
+        <v>28</v>
+      </c>
+      <c r="F32" t="s">
+        <v>51</v>
+      </c>
+      <c r="J32" s="1">
+        <v>45132</v>
+      </c>
+      <c r="K32">
+        <v>-4220</v>
+      </c>
+      <c r="M32">
+        <v>39.299999999999997</v>
+      </c>
+      <c r="P32" t="s">
+        <v>52</v>
+      </c>
+      <c r="R32">
+        <v>585</v>
+      </c>
+      <c r="T32">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A33">
         <v>293814</v>
       </c>
-      <c r="C32" t="s">
-        <v>52</v>
-      </c>
-      <c r="F32" t="s">
+      <c r="C33" t="s">
+        <v>53</v>
+      </c>
+      <c r="F33" t="s">
         <v>35</v>
       </c>
-      <c r="J32" s="1">
+      <c r="J33" s="1">
         <v>45335</v>
-      </c>
-      <c r="P32" t="s">
-        <v>36</v>
-      </c>
-      <c r="R32">
-        <v>323</v>
-      </c>
-      <c r="T32">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A33">
-        <v>293816</v>
-      </c>
-      <c r="C33" t="s">
-        <v>52</v>
-      </c>
-      <c r="F33" t="s">
-        <v>53</v>
-      </c>
-      <c r="J33" s="1">
-        <v>45575</v>
-      </c>
-      <c r="K33">
-        <v>400</v>
-      </c>
-      <c r="M33">
-        <v>607.62</v>
       </c>
       <c r="P33" t="s">
         <v>36</v>
       </c>
       <c r="R33">
-        <v>83</v>
+        <v>382</v>
       </c>
       <c r="T33">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>293816</v>
+      </c>
+      <c r="C34" t="s">
+        <v>53</v>
+      </c>
+      <c r="F34" t="s">
+        <v>54</v>
+      </c>
+      <c r="J34" s="1">
+        <v>45575</v>
+      </c>
+      <c r="K34">
+        <v>223.44</v>
+      </c>
+      <c r="M34">
+        <v>339.36</v>
+      </c>
+      <c r="P34" t="s">
+        <v>36</v>
+      </c>
+      <c r="R34">
+        <v>142</v>
+      </c>
+      <c r="T34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>299019</v>
+      </c>
+      <c r="C35" t="s">
+        <v>55</v>
+      </c>
+      <c r="J35" s="1">
+        <v>45448</v>
+      </c>
+      <c r="P35" t="s">
+        <v>25</v>
+      </c>
+      <c r="R35">
+        <v>269</v>
+      </c>
+      <c r="T35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A37" s="3">
+        <v>32874</v>
+      </c>
+      <c r="B37" t="s">
+        <v>57</v>
+      </c>
+      <c r="C37" t="s">
+        <v>58</v>
+      </c>
+      <c r="D37">
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A34">
-        <v>299019</v>
-      </c>
-      <c r="C34" t="s">
-        <v>54</v>
-      </c>
-      <c r="J34" s="1">
-        <v>45448</v>
-      </c>
-      <c r="P34" t="s">
-        <v>25</v>
-      </c>
-      <c r="R34">
-        <v>210</v>
-      </c>
-      <c r="T34">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A36" s="3">
-        <v>32874</v>
-      </c>
-      <c r="B36" t="s">
-        <v>56</v>
-      </c>
-      <c r="C36" t="s">
-        <v>57</v>
-      </c>
-      <c r="D36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>58</v>
-      </c>
-      <c r="B37" t="s">
-        <v>56</v>
-      </c>
-      <c r="C37" t="s">
-        <v>57</v>
-      </c>
-      <c r="D37">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>59</v>
       </c>
       <c r="B38" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C38" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D38">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>60</v>
       </c>
       <c r="B39" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C39" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D39">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>61</v>
       </c>
       <c r="B40" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C40" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D40">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>62</v>
       </c>
       <c r="B41" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C41" t="s">
+        <v>58</v>
+      </c>
+      <c r="D41">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>63</v>
+      </c>
+      <c r="B42" t="s">
         <v>57</v>
       </c>
-      <c r="D41">
+      <c r="C42" t="s">
+        <v>58</v>
+      </c>
+      <c r="D42">
         <v>6</v>
       </c>
     </row>
